--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/64_Osmaniye_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/64_Osmaniye_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D43417-74C0-48B5-8101-A0B8B7CA63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF335CE4-6DD1-4D14-9CD0-19F689C287D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{F08EEE77-0D50-4E83-BF86-D687DA686112}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{DCF0BFA1-18A5-4A44-B6D6-373DA35C1A38}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -915,14 +915,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DC67E0B6-D8EA-477C-BEE0-329814F4682F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F69B2809-05A2-42CE-A4D8-19AC25037D09}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{57A0BF7B-8322-4152-83F5-C085ADD4D566}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B0C7734D-460A-4B82-B2E9-F7FF846F9E7D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8B47D594-6626-4793-85B0-CD1C2AB35F72}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6CCB792F-2641-4081-BC93-E4988D5EEBBC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{69551A52-A4D8-4257-8667-68F2AE987049}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{845211E0-5206-49E2-B4F8-7A8753961C76}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CBFBBA63-9AC7-4B12-8870-8772462AC8C7}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4838DE70-5CB3-4AC0-8094-8BF12BC90522}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{C294C2E5-0856-4A24-9F9F-7FF6DC17BC8C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9642E99A-6246-49FA-AE2C-1D5B43BFF875}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{042FB787-E4EB-422E-86A0-452F3BAAA6AF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CD29AC35-77B8-4984-B94E-2B5218DC7C58}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{AE044A87-A1B3-4D35-A891-68D258E2FA6B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0F98E9AA-5B46-4A4E-B22D-02E1DBC32C99}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,7 +1292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847B4791-4609-4823-9576-F86D38693C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78DBD8-CA05-4D5C-B2A6-D8076CF341E0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30808279-B49C-47A5-B8D5-20AA4D1407A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C39A8C-0695-4A5E-86F4-39C52293C7B0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785174-833B-4B50-8299-E597B4C8C737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C230ACC-A2CF-4CFB-8811-5B83F6FD21F6}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545ACDD2-1A61-4472-AA27-A4FF72FDB18B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FD3C0E-E1DE-4B58-890A-7B408E590451}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6280,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8AFF9-6793-4474-8783-D3B86528C7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0245AF3E-4D61-4AEE-B556-ADA935A92E3B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7561,7 +7561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B1CBAC-B410-47C6-9699-48177C505BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BC5D1-270B-45F5-AD98-17F73ABEF3E0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8842,7 +8842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D6CC5-631A-424F-8E50-06EBB9516030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8483B-B870-4887-B7CF-2E35D81483EC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10119,7 +10119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95EE008-54D6-401A-84AE-4E1BD40585DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD48DB77-41B4-46C1-88FD-E100E9A802F8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11392,7 +11392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757F6D9A-E2DE-4414-B636-780BD2A1EC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BEC1C4-1F97-47EB-B36A-482892373BFB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12666,7 +12666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CA0DB-10B3-4968-AF04-F683B9041A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4117DA6E-6D13-41B9-A877-503884D4CBBA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13928,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E95900-E6B1-4D1B-AFD1-D1AB6818412D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A2130-EDC9-47DC-9158-B45118BB128C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15190,7 +15190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5A72A1-1AF8-479C-9AF4-1155D9D3C159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6833B5-088A-4942-B1F3-D2FA0FD7D21C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
